--- a/3T 1718 CR/3T1718 IT8 2G.xlsx
+++ b/3T 1718 CR/3T1718 IT8 2G.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\primu\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\primu\Desktop\Notes\3T 1718 CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B24F9-2541-4246-A73E-721D783F0552}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BEA4A4-0637-4B26-A9D3-1885D2738D31}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="256">
   <si>
     <t>J</t>
   </si>
@@ -940,6 +940,24 @@
   </si>
   <si>
     <t>SW03</t>
+  </si>
+  <si>
+    <t>Lab01</t>
+  </si>
+  <si>
+    <t>Lab02</t>
+  </si>
+  <si>
+    <t>Lab03</t>
+  </si>
+  <si>
+    <t>Lab04</t>
+  </si>
+  <si>
+    <t>Lab05</t>
+  </si>
+  <si>
+    <t>SW04</t>
   </si>
 </sst>
 </file>
@@ -11154,8 +11172,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12480,23 +12498,23 @@
       </c>
       <c r="E9" s="82">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v>19.8</v>
-      </c>
-      <c r="F9" s="83" t="str">
+        <v>25.892307692307696</v>
+      </c>
+      <c r="F9" s="83">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
-        <v/>
+        <v>12.466666666666667</v>
       </c>
       <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>19.8</v>
+        <v>71.358974358974365</v>
       </c>
       <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -12571,23 +12589,23 @@
       </c>
       <c r="E10" s="82">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="F10" s="83" t="str">
+        <v>15.230769230769232</v>
+      </c>
+      <c r="F10" s="83">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
-        <v/>
+        <v>19.266666666666666</v>
       </c>
       <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v>14.142857142857142</v>
+        <v>67.497435897435906</v>
       </c>
       <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J10" s="83" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -12759,11 +12777,11 @@
       </c>
       <c r="E12" s="82">
         <f>IF(PRELIM!P12="","",$E$8*PRELIM!P12)</f>
-        <v>19.8</v>
-      </c>
-      <c r="F12" s="83" t="str">
+        <v>23.353846153846156</v>
+      </c>
+      <c r="F12" s="83">
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G12" s="83" t="str">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
@@ -12771,11 +12789,11 @@
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>56.353846153846156</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J12" s="83" t="str">
         <f>IF(MIDTERM!P12="","",$J$8*MIDTERM!P12)</f>
@@ -12853,11 +12871,11 @@
       </c>
       <c r="E13" s="82">
         <f>IF(PRELIM!P13="","",$E$8*PRELIM!P13)</f>
-        <v>17.914285714285715</v>
-      </c>
-      <c r="F13" s="83" t="str">
+        <v>17.261538461538464</v>
+      </c>
+      <c r="F13" s="83">
         <f>IF(PRELIM!AB13="","",$F$8*PRELIM!AB13)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G13" s="83" t="str">
         <f>IF(PRELIM!AD13="","",$G$8*PRELIM!AD13)</f>
@@ -12865,11 +12883,11 @@
       </c>
       <c r="H13" s="84">
         <f t="shared" si="0"/>
-        <v>17.914285714285715</v>
+        <v>50.261538461538464</v>
       </c>
       <c r="I13" s="85">
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J13" s="83" t="str">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
@@ -12947,11 +12965,11 @@
       </c>
       <c r="E14" s="82">
         <f>IF(PRELIM!P14="","",$E$8*PRELIM!P14)</f>
-        <v>28.757142857142856</v>
-      </c>
-      <c r="F14" s="83" t="str">
+        <v>28.176923076923078</v>
+      </c>
+      <c r="F14" s="83">
         <f>IF(PRELIM!AB14="","",$F$8*PRELIM!AB14)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G14" s="83" t="str">
         <f>IF(PRELIM!AD14="","",$G$8*PRELIM!AD14)</f>
@@ -12959,11 +12977,11 @@
       </c>
       <c r="H14" s="84">
         <f t="shared" si="0"/>
-        <v>28.757142857142856</v>
+        <v>61.176923076923075</v>
       </c>
       <c r="I14" s="85">
         <f>IF(H14="","",VLOOKUP(H14,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J14" s="83" t="str">
         <f>IF(MIDTERM!P14="","",$J$8*MIDTERM!P14)</f>
@@ -13041,11 +13059,11 @@
       </c>
       <c r="E15" s="82">
         <f>IF(PRELIM!P15="","",$E$8*PRELIM!P15)</f>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="F15" s="83" t="str">
+        <v>25.38461538461539</v>
+      </c>
+      <c r="F15" s="83">
         <f>IF(PRELIM!AB15="","",$F$8*PRELIM!AB15)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G15" s="83" t="str">
         <f>IF(PRELIM!AD15="","",$G$8*PRELIM!AD15)</f>
@@ -13053,11 +13071,11 @@
       </c>
       <c r="H15" s="84">
         <f t="shared" si="0"/>
-        <v>23.571428571428573</v>
+        <v>58.384615384615387</v>
       </c>
       <c r="I15" s="85">
         <f>IF(H15="","",VLOOKUP(H15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J15" s="83" t="str">
         <f>IF(MIDTERM!P15="","",$J$8*MIDTERM!P15)</f>
@@ -13135,23 +13153,23 @@
       </c>
       <c r="E16" s="82">
         <f>IF(PRELIM!P16="","",$E$8*PRELIM!P16)</f>
-        <v>16.5</v>
-      </c>
-      <c r="F16" s="83" t="str">
+        <v>21.57692307692308</v>
+      </c>
+      <c r="F16" s="83">
         <f>IF(PRELIM!AB16="","",$F$8*PRELIM!AB16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G16" s="83">
         <f>IF(PRELIM!AD16="","",$G$8*PRELIM!AD16)</f>
-        <v/>
+        <v>24.177777777777781</v>
       </c>
       <c r="H16" s="84">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>78.754700854700857</v>
       </c>
       <c r="I16" s="85">
         <f>IF(H16="","",VLOOKUP(H16,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J16" s="83" t="str">
         <f>IF(MIDTERM!P16="","",$J$8*MIDTERM!P16)</f>
@@ -13229,11 +13247,11 @@
       </c>
       <c r="E17" s="82">
         <f>IF(PRELIM!P17="","",$E$8*PRELIM!P17)</f>
-        <v>27.342857142857145</v>
-      </c>
-      <c r="F17" s="83" t="str">
+        <v>29.953846153846158</v>
+      </c>
+      <c r="F17" s="83">
         <f>IF(PRELIM!AB17="","",$F$8*PRELIM!AB17)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G17" s="83" t="str">
         <f>IF(PRELIM!AD17="","",$G$8*PRELIM!AD17)</f>
@@ -13241,11 +13259,11 @@
       </c>
       <c r="H17" s="84">
         <f t="shared" si="0"/>
-        <v>27.342857142857145</v>
+        <v>56.353846153846163</v>
       </c>
       <c r="I17" s="85">
         <f>IF(H17="","",VLOOKUP(H17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J17" s="83" t="str">
         <f>IF(MIDTERM!P17="","",$J$8*MIDTERM!P17)</f>
@@ -13323,11 +13341,11 @@
       </c>
       <c r="E18" s="82">
         <f>IF(PRELIM!P18="","",$E$8*PRELIM!P18)</f>
-        <v>7.0714285714285712</v>
-      </c>
-      <c r="F18" s="83" t="str">
+        <v>8.884615384615385</v>
+      </c>
+      <c r="F18" s="83">
         <f>IF(PRELIM!AB18="","",$F$8*PRELIM!AB18)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G18" s="83" t="str">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
@@ -13335,11 +13353,11 @@
       </c>
       <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v>7.0714285714285712</v>
+        <v>35.284615384615385</v>
       </c>
       <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" s="83" t="str">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
@@ -13417,11 +13435,11 @@
       </c>
       <c r="E19" s="82">
         <f>IF(PRELIM!P19="","",$E$8*PRELIM!P19)</f>
-        <v>22.62857142857143</v>
-      </c>
-      <c r="F19" s="83" t="str">
+        <v>24.876923076923077</v>
+      </c>
+      <c r="F19" s="83">
         <f>IF(PRELIM!AB19="","",$F$8*PRELIM!AB19)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G19" s="83" t="str">
         <f>IF(PRELIM!AD19="","",$G$8*PRELIM!AD19)</f>
@@ -13429,11 +13447,11 @@
       </c>
       <c r="H19" s="84">
         <f t="shared" si="0"/>
-        <v>22.62857142857143</v>
+        <v>57.876923076923077</v>
       </c>
       <c r="I19" s="85">
         <f>IF(H19="","",VLOOKUP(H19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J19" s="83" t="str">
         <f>IF(MIDTERM!P19="","",$J$8*MIDTERM!P19)</f>
@@ -13511,11 +13529,11 @@
       </c>
       <c r="E20" s="82">
         <f>IF(PRELIM!P20="","",$E$8*PRELIM!P20)</f>
-        <v>22.157142857142858</v>
-      </c>
-      <c r="F20" s="83" t="str">
+        <v>27.161538461538463</v>
+      </c>
+      <c r="F20" s="83">
         <f>IF(PRELIM!AB20="","",$F$8*PRELIM!AB20)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G20" s="83" t="str">
         <f>IF(PRELIM!AD20="","",$G$8*PRELIM!AD20)</f>
@@ -13523,11 +13541,11 @@
       </c>
       <c r="H20" s="84">
         <f t="shared" si="0"/>
-        <v>22.157142857142858</v>
+        <v>60.161538461538463</v>
       </c>
       <c r="I20" s="85">
         <f>IF(H20="","",VLOOKUP(H20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J20" s="83" t="str">
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
@@ -13605,11 +13623,11 @@
       </c>
       <c r="E21" s="82">
         <f>IF(PRELIM!P21="","",$E$8*PRELIM!P21)</f>
-        <v>19.8</v>
-      </c>
-      <c r="F21" s="83" t="str">
+        <v>23.353846153846156</v>
+      </c>
+      <c r="F21" s="83">
         <f>IF(PRELIM!AB21="","",$F$8*PRELIM!AB21)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G21" s="83" t="str">
         <f>IF(PRELIM!AD21="","",$G$8*PRELIM!AD21)</f>
@@ -13617,11 +13635,11 @@
       </c>
       <c r="H21" s="84">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>49.753846153846155</v>
       </c>
       <c r="I21" s="85">
         <f>IF(H21="","",VLOOKUP(H21,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="83" t="str">
         <f>IF(MIDTERM!P21="","",$J$8*MIDTERM!P21)</f>
@@ -13699,23 +13717,23 @@
       </c>
       <c r="E22" s="82">
         <f>IF(PRELIM!P22="","",$E$8*PRELIM!P22)</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="F22" s="83" t="str">
+        <v>22.846153846153847</v>
+      </c>
+      <c r="F22" s="83">
         <f>IF(PRELIM!AB22="","",$F$8*PRELIM!AB22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G22" s="83">
         <f>IF(PRELIM!AD22="","",$G$8*PRELIM!AD22)</f>
-        <v/>
+        <v>18.888888888888889</v>
       </c>
       <c r="H22" s="84">
         <f t="shared" si="0"/>
-        <v>14.142857142857142</v>
+        <v>74.73504273504274</v>
       </c>
       <c r="I22" s="85">
         <f>IF(H22="","",VLOOKUP(H22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J22" s="83" t="str">
         <f>IF(MIDTERM!P22="","",$J$8*MIDTERM!P22)</f>
@@ -13793,11 +13811,11 @@
       </c>
       <c r="E23" s="82">
         <f>IF(PRELIM!P23="","",$E$8*PRELIM!P23)</f>
-        <v>22.62857142857143</v>
-      </c>
-      <c r="F23" s="83" t="str">
+        <v>27.415384615384617</v>
+      </c>
+      <c r="F23" s="83">
         <f>IF(PRELIM!AB23="","",$F$8*PRELIM!AB23)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G23" s="83" t="str">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
@@ -13805,11 +13823,11 @@
       </c>
       <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v>22.62857142857143</v>
+        <v>53.815384615384616</v>
       </c>
       <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J23" s="83" t="str">
         <f>IF(MIDTERM!P23="","",$J$8*MIDTERM!P23)</f>
@@ -13887,23 +13905,23 @@
       </c>
       <c r="E24" s="82">
         <f>IF(PRELIM!P24="","",$E$8*PRELIM!P24)</f>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="F24" s="83" t="str">
+        <v>22.846153846153847</v>
+      </c>
+      <c r="F24" s="83">
         <f>IF(PRELIM!AB24="","",$F$8*PRELIM!AB24)</f>
-        <v/>
-      </c>
-      <c r="G24" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G24" s="83">
         <f>IF(PRELIM!AD24="","",$G$8*PRELIM!AD24)</f>
-        <v/>
+        <v>18.888888888888889</v>
       </c>
       <c r="H24" s="84">
         <f t="shared" si="0"/>
-        <v>23.571428571428573</v>
+        <v>68.135042735042731</v>
       </c>
       <c r="I24" s="85">
         <f>IF(H24="","",VLOOKUP(H24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J24" s="83" t="str">
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
@@ -13981,11 +13999,11 @@
       </c>
       <c r="E25" s="82">
         <f>IF(PRELIM!P25="","",$E$8*PRELIM!P25)</f>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="F25" s="83" t="str">
+        <v>20.30769230769231</v>
+      </c>
+      <c r="F25" s="83">
         <f>IF(PRELIM!AB25="","",$F$8*PRELIM!AB25)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G25" s="83" t="str">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
@@ -13993,11 +14011,11 @@
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>23.571428571428573</v>
+        <v>46.707692307692312</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -14075,23 +14093,23 @@
       </c>
       <c r="E26" s="82">
         <f>IF(PRELIM!P26="","",$E$8*PRELIM!P26)</f>
-        <v>7.0714285714285712</v>
-      </c>
-      <c r="F26" s="83" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="F26" s="83">
         <f>IF(PRELIM!AB26="","",$F$8*PRELIM!AB26)</f>
-        <v/>
-      </c>
-      <c r="G26" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
-        <v/>
+        <v>15.111111111111112</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v>7.0714285714285712</v>
+        <v>58.01111111111112</v>
       </c>
       <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J26" s="83" t="str">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
@@ -14172,11 +14190,11 @@
       </c>
       <c r="E27" s="82">
         <f>IF(PRELIM!P27="","",$E$8*PRELIM!P27)</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="F27" s="83" t="str">
+        <v>17.76923076923077</v>
+      </c>
+      <c r="F27" s="83">
         <f>IF(PRELIM!AB27="","",$F$8*PRELIM!AB27)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G27" s="83" t="str">
         <f>IF(PRELIM!AD27="","",$G$8*PRELIM!AD27)</f>
@@ -14184,11 +14202,11 @@
       </c>
       <c r="H27" s="84">
         <f t="shared" si="0"/>
-        <v>9.4285714285714288</v>
+        <v>44.169230769230772</v>
       </c>
       <c r="I27" s="85">
         <f>IF(H27="","",VLOOKUP(H27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J27" s="83" t="str">
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
@@ -14267,23 +14285,23 @@
       </c>
       <c r="E28" s="82">
         <f>IF(PRELIM!P28="","",$E$8*PRELIM!P28)</f>
-        <v>7.0714285714285712</v>
-      </c>
-      <c r="F28" s="83" t="str">
+        <v>3.8076923076923079</v>
+      </c>
+      <c r="F28" s="83">
         <f>IF(PRELIM!AB28="","",$F$8*PRELIM!AB28)</f>
-        <v/>
-      </c>
-      <c r="G28" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G28" s="83">
         <f>IF(PRELIM!AD28="","",$G$8*PRELIM!AD28)</f>
-        <v/>
+        <v>24.933333333333334</v>
       </c>
       <c r="H28" s="84">
         <f t="shared" si="0"/>
-        <v>7.0714285714285712</v>
+        <v>55.141025641025642</v>
       </c>
       <c r="I28" s="85">
         <f>IF(H28="","",VLOOKUP(H28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J28" s="83" t="str">
         <f>IF(MIDTERM!P28="","",$J$8*MIDTERM!P28)</f>
@@ -14457,23 +14475,23 @@
       </c>
       <c r="E30" s="82">
         <f>IF(PRELIM!P30="","",$E$8*PRELIM!P30)</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="F30" s="83" t="str">
+        <v>17.76923076923077</v>
+      </c>
+      <c r="F30" s="83">
         <f>IF(PRELIM!AB30="","",$F$8*PRELIM!AB30)</f>
-        <v/>
-      </c>
-      <c r="G30" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G30" s="83">
         <f>IF(PRELIM!AD30="","",$G$8*PRELIM!AD30)</f>
-        <v/>
+        <v>21.533333333333335</v>
       </c>
       <c r="H30" s="84">
         <f t="shared" si="0"/>
-        <v>14.142857142857142</v>
+        <v>72.302564102564105</v>
       </c>
       <c r="I30" s="85">
         <f>IF(H30="","",VLOOKUP(H30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J30" s="83" t="str">
         <f>IF(MIDTERM!P30="","",$J$8*MIDTERM!P30)</f>
@@ -14552,11 +14570,11 @@
       </c>
       <c r="E31" s="82">
         <f>IF(PRELIM!P31="","",$E$8*PRELIM!P31)</f>
-        <v>15.085714285714287</v>
-      </c>
-      <c r="F31" s="83" t="str">
+        <v>15.738461538461539</v>
+      </c>
+      <c r="F31" s="83">
         <f>IF(PRELIM!AB31="","",$F$8*PRELIM!AB31)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G31" s="83" t="str">
         <f>IF(PRELIM!AD31="","",$G$8*PRELIM!AD31)</f>
@@ -14564,11 +14582,11 @@
       </c>
       <c r="H31" s="84">
         <f t="shared" si="0"/>
-        <v>15.085714285714287</v>
+        <v>48.738461538461536</v>
       </c>
       <c r="I31" s="85">
         <f>IF(H31="","",VLOOKUP(H31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J31" s="83" t="str">
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
@@ -14647,11 +14665,11 @@
       </c>
       <c r="E32" s="82">
         <f>IF(PRELIM!P32="","",$E$8*PRELIM!P32)</f>
-        <v>5.6571428571428575</v>
-      </c>
-      <c r="F32" s="83" t="str">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F32" s="83">
         <f>IF(PRELIM!AB32="","",$F$8*PRELIM!AB32)</f>
-        <v/>
+        <v>13.200000000000001</v>
       </c>
       <c r="G32" s="83" t="str">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
@@ -14659,11 +14677,11 @@
       </c>
       <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v>5.6571428571428575</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J32" s="83" t="str">
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
@@ -14742,23 +14760,23 @@
       </c>
       <c r="E33" s="82">
         <f>IF(PRELIM!P33="","",$E$8*PRELIM!P33)</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="F33" s="83" t="str">
+        <v>15.230769230769232</v>
+      </c>
+      <c r="F33" s="83">
         <f>IF(PRELIM!AB33="","",$F$8*PRELIM!AB33)</f>
-        <v/>
-      </c>
-      <c r="G33" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G33" s="83">
         <f>IF(PRELIM!AD33="","",$G$8*PRELIM!AD33)</f>
-        <v/>
+        <v>15.866666666666667</v>
       </c>
       <c r="H33" s="84">
         <f t="shared" si="0"/>
-        <v>14.142857142857142</v>
+        <v>57.497435897435899</v>
       </c>
       <c r="I33" s="85">
         <f>IF(H33="","",VLOOKUP(H33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J33" s="83" t="str">
         <f>IF(MIDTERM!P33="","",$J$8*MIDTERM!P33)</f>
@@ -14837,23 +14855,23 @@
       </c>
       <c r="E34" s="82">
         <f>IF(PRELIM!P34="","",$E$8*PRELIM!P34)</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="F34" s="83" t="str">
+        <v>20.30769230769231</v>
+      </c>
+      <c r="F34" s="83">
         <f>IF(PRELIM!AB34="","",$F$8*PRELIM!AB34)</f>
-        <v/>
-      </c>
-      <c r="G34" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G34" s="83">
         <f>IF(PRELIM!AD34="","",$G$8*PRELIM!AD34)</f>
-        <v/>
+        <v>21.911111111111111</v>
       </c>
       <c r="H34" s="84">
         <f t="shared" si="0"/>
-        <v>9.4285714285714288</v>
+        <v>68.618803418803424</v>
       </c>
       <c r="I34" s="85">
         <f>IF(H34="","",VLOOKUP(H34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J34" s="83" t="str">
         <f>IF(MIDTERM!P34="","",$J$8*MIDTERM!P34)</f>
@@ -14932,11 +14950,11 @@
       </c>
       <c r="E35" s="82">
         <f>IF(PRELIM!P35="","",$E$8*PRELIM!P35)</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="F35" s="83" t="str">
+        <v>15.230769230769232</v>
+      </c>
+      <c r="F35" s="83">
         <f>IF(PRELIM!AB35="","",$F$8*PRELIM!AB35)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G35" s="83" t="str">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
@@ -14944,11 +14962,11 @@
       </c>
       <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v>9.4285714285714288</v>
+        <v>41.630769230769232</v>
       </c>
       <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J35" s="83" t="str">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
@@ -15027,11 +15045,11 @@
       </c>
       <c r="E36" s="82">
         <f>IF(PRELIM!P36="","",$E$8*PRELIM!P36)</f>
-        <v>22.62857142857143</v>
-      </c>
-      <c r="F36" s="83" t="str">
+        <v>27.415384615384617</v>
+      </c>
+      <c r="F36" s="83">
         <f>IF(PRELIM!AB36="","",$F$8*PRELIM!AB36)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G36" s="83" t="str">
         <f>IF(PRELIM!AD36="","",$G$8*PRELIM!AD36)</f>
@@ -15039,11 +15057,11 @@
       </c>
       <c r="H36" s="84">
         <f t="shared" si="0"/>
-        <v>22.62857142857143</v>
+        <v>60.415384615384617</v>
       </c>
       <c r="I36" s="85">
         <f>IF(H36="","",VLOOKUP(H36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J36" s="83" t="str">
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
@@ -15120,25 +15138,25 @@
         <f>IF(NAMES!D30="","",NAMES!D30)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E37" s="82" t="str">
+      <c r="E37" s="82">
         <f>IF(PRELIM!P37="","",$E$8*PRELIM!P37)</f>
-        <v/>
-      </c>
-      <c r="F37" s="83" t="str">
+        <v>15.230769230769232</v>
+      </c>
+      <c r="F37" s="83">
         <f>IF(PRELIM!AB37="","",$F$8*PRELIM!AB37)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G37" s="83" t="str">
         <f>IF(PRELIM!AD37="","",$G$8*PRELIM!AD37)</f>
         <v/>
       </c>
-      <c r="H37" s="84" t="str">
+      <c r="H37" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I37" s="85" t="str">
+        <v>41.630769230769232</v>
+      </c>
+      <c r="I37" s="85">
         <f>IF(H37="","",VLOOKUP(H37,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="J37" s="83" t="str">
         <f>IF(MIDTERM!P37="","",$J$8*MIDTERM!P37)</f>
@@ -15217,23 +15235,23 @@
       </c>
       <c r="E38" s="82">
         <f>IF(PRELIM!P38="","",$E$8*PRELIM!P38)</f>
-        <v>27.342857142857145</v>
-      </c>
-      <c r="F38" s="83" t="str">
+        <v>24.876923076923077</v>
+      </c>
+      <c r="F38" s="83">
         <f>IF(PRELIM!AB38="","",$F$8*PRELIM!AB38)</f>
-        <v/>
-      </c>
-      <c r="G38" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G38" s="83">
         <f>IF(PRELIM!AD38="","",$G$8*PRELIM!AD38)</f>
-        <v/>
+        <v>32.488888888888894</v>
       </c>
       <c r="H38" s="84">
         <f t="shared" si="0"/>
-        <v>27.342857142857145</v>
+        <v>90.365811965811972</v>
       </c>
       <c r="I38" s="85">
         <f>IF(H38="","",VLOOKUP(H38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="J38" s="83" t="str">
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
@@ -15312,11 +15330,11 @@
       </c>
       <c r="E39" s="82">
         <f>IF(PRELIM!P39="","",$E$8*PRELIM!P39)</f>
-        <v>12.728571428571431</v>
-      </c>
-      <c r="F39" s="83" t="str">
+        <v>22.084615384615386</v>
+      </c>
+      <c r="F39" s="83">
         <f>IF(PRELIM!AB39="","",$F$8*PRELIM!AB39)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G39" s="83" t="str">
         <f>IF(PRELIM!AD39="","",$G$8*PRELIM!AD39)</f>
@@ -15324,11 +15342,11 @@
       </c>
       <c r="H39" s="84">
         <f t="shared" si="0"/>
-        <v>12.728571428571431</v>
+        <v>55.08461538461539</v>
       </c>
       <c r="I39" s="85">
         <f>IF(H39="","",VLOOKUP(H39,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J39" s="83" t="str">
         <f>IF(MIDTERM!P39="","",$J$8*MIDTERM!P39)</f>
@@ -15407,11 +15425,11 @@
       </c>
       <c r="E40" s="82">
         <f>IF(PRELIM!P40="","",$E$8*PRELIM!P40)</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="F40" s="83" t="str">
+        <v>17.76923076923077</v>
+      </c>
+      <c r="F40" s="83">
         <f>IF(PRELIM!AB40="","",$F$8*PRELIM!AB40)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G40" s="83" t="str">
         <f>IF(PRELIM!AD40="","",$G$8*PRELIM!AD40)</f>
@@ -15419,11 +15437,11 @@
       </c>
       <c r="H40" s="84">
         <f t="shared" si="0"/>
-        <v>9.4285714285714288</v>
+        <v>44.169230769230772</v>
       </c>
       <c r="I40" s="85">
         <f>IF(H40="","",VLOOKUP(H40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J40" s="83" t="str">
         <f>IF(MIDTERM!P40="","",$J$8*MIDTERM!P40)</f>
@@ -15812,11 +15830,11 @@
       </c>
       <c r="E50" s="82">
         <f>IF(PRELIM!P50="","",$E$8*PRELIM!P50)</f>
-        <v>24.985714285714284</v>
-      </c>
-      <c r="F50" s="83" t="str">
+        <v>26.146153846153847</v>
+      </c>
+      <c r="F50" s="83">
         <f>IF(PRELIM!AB50="","",$F$8*PRELIM!AB50)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G50" s="83" t="str">
         <f>IF(PRELIM!AD50="","",$G$8*PRELIM!AD50)</f>
@@ -15824,11 +15842,11 @@
       </c>
       <c r="H50" s="84">
         <f t="shared" ref="H50:H80" si="6">IF(SUM(E50:G50)=0,"",SUM(E50:G50))</f>
-        <v>24.985714285714284</v>
+        <v>52.54615384615385</v>
       </c>
       <c r="I50" s="85">
         <f>IF(H50="","",VLOOKUP(H50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J50" s="83" t="str">
         <f>IF(MIDTERM!P50="","",$J$8*MIDTERM!P50)</f>
@@ -15906,23 +15924,23 @@
       </c>
       <c r="E51" s="82">
         <f>IF(PRELIM!P51="","",$E$8*PRELIM!P51)</f>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="F51" s="83" t="str">
+        <v>25.38461538461539</v>
+      </c>
+      <c r="F51" s="83">
         <f>IF(PRELIM!AB51="","",$F$8*PRELIM!AB51)</f>
-        <v/>
-      </c>
-      <c r="G51" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
-        <v/>
+        <v>29.844444444444445</v>
       </c>
       <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v>23.571428571428573</v>
+        <v>88.229059829059835</v>
       </c>
       <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="J51" s="83" t="str">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
@@ -16000,11 +16018,11 @@
       </c>
       <c r="E52" s="82">
         <f>IF(PRELIM!P52="","",$E$8*PRELIM!P52)</f>
-        <v>27.342857142857145</v>
-      </c>
-      <c r="F52" s="83" t="str">
+        <v>29.953846153846158</v>
+      </c>
+      <c r="F52" s="83">
         <f>IF(PRELIM!AB52="","",$F$8*PRELIM!AB52)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G52" s="83" t="str">
         <f>IF(PRELIM!AD52="","",$G$8*PRELIM!AD52)</f>
@@ -16012,11 +16030,11 @@
       </c>
       <c r="H52" s="84">
         <f t="shared" si="6"/>
-        <v>27.342857142857145</v>
+        <v>62.953846153846158</v>
       </c>
       <c r="I52" s="85">
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J52" s="83" t="str">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
@@ -16094,23 +16112,23 @@
       </c>
       <c r="E53" s="82">
         <f>IF(PRELIM!P53="","",$E$8*PRELIM!P53)</f>
-        <v>23.571428571428573</v>
-      </c>
-      <c r="F53" s="83" t="str">
+        <v>25.38461538461539</v>
+      </c>
+      <c r="F53" s="83">
         <f>IF(PRELIM!AB53="","",$F$8*PRELIM!AB53)</f>
-        <v/>
-      </c>
-      <c r="G53" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="G53" s="83">
         <f>IF(PRELIM!AD53="","",$G$8*PRELIM!AD53)</f>
-        <v/>
+        <v>23.044444444444448</v>
       </c>
       <c r="H53" s="84">
         <f t="shared" si="6"/>
-        <v>23.571428571428573</v>
+        <v>81.429059829059838</v>
       </c>
       <c r="I53" s="85">
         <f>IF(H53="","",VLOOKUP(H53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J53" s="83" t="str">
         <f>IF(MIDTERM!P53="","",$J$8*MIDTERM!P53)</f>
@@ -16188,11 +16206,11 @@
       </c>
       <c r="E54" s="82">
         <f>IF(PRELIM!P54="","",$E$8*PRELIM!P54)</f>
-        <v>12.728571428571431</v>
-      </c>
-      <c r="F54" s="83" t="str">
+        <v>19.54615384615385</v>
+      </c>
+      <c r="F54" s="83">
         <f>IF(PRELIM!AB54="","",$F$8*PRELIM!AB54)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G54" s="83" t="str">
         <f>IF(PRELIM!AD54="","",$G$8*PRELIM!AD54)</f>
@@ -16200,11 +16218,11 @@
       </c>
       <c r="H54" s="84">
         <f t="shared" si="6"/>
-        <v>12.728571428571431</v>
+        <v>52.54615384615385</v>
       </c>
       <c r="I54" s="85">
         <f>IF(H54="","",VLOOKUP(H54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J54" s="83" t="str">
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
@@ -16282,11 +16300,11 @@
       </c>
       <c r="E55" s="82">
         <f>IF(PRELIM!P55="","",$E$8*PRELIM!P55)</f>
-        <v>24.985714285714284</v>
-      </c>
-      <c r="F55" s="83" t="str">
+        <v>23.607692307692307</v>
+      </c>
+      <c r="F55" s="83">
         <f>IF(PRELIM!AB55="","",$F$8*PRELIM!AB55)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G55" s="83" t="str">
         <f>IF(PRELIM!AD55="","",$G$8*PRELIM!AD55)</f>
@@ -16294,11 +16312,11 @@
       </c>
       <c r="H55" s="84">
         <f t="shared" si="6"/>
-        <v>24.985714285714284</v>
+        <v>56.607692307692304</v>
       </c>
       <c r="I55" s="85">
         <f>IF(H55="","",VLOOKUP(H55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J55" s="83" t="str">
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
@@ -16376,11 +16394,11 @@
       </c>
       <c r="E56" s="82">
         <f>IF(PRELIM!P56="","",$E$8*PRELIM!P56)</f>
-        <v>17.442857142857147</v>
-      </c>
-      <c r="F56" s="83" t="str">
+        <v>22.084615384615386</v>
+      </c>
+      <c r="F56" s="83">
         <f>IF(PRELIM!AB56="","",$F$8*PRELIM!AB56)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="G56" s="83" t="str">
         <f>IF(PRELIM!AD56="","",$G$8*PRELIM!AD56)</f>
@@ -16388,11 +16406,11 @@
       </c>
       <c r="H56" s="84">
         <f t="shared" si="6"/>
-        <v>17.442857142857147</v>
+        <v>55.08461538461539</v>
       </c>
       <c r="I56" s="85">
         <f>IF(H56="","",VLOOKUP(H56,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J56" s="83" t="str">
         <f>IF(MIDTERM!P56="","",$J$8*MIDTERM!P56)</f>
@@ -16470,11 +16488,11 @@
       </c>
       <c r="E57" s="82">
         <f>IF(PRELIM!P57="","",$E$8*PRELIM!P57)</f>
-        <v>16.5</v>
-      </c>
-      <c r="F57" s="83" t="str">
+        <v>19.038461538461537</v>
+      </c>
+      <c r="F57" s="83">
         <f>IF(PRELIM!AB57="","",$F$8*PRELIM!AB57)</f>
-        <v/>
+        <v>26.400000000000002</v>
       </c>
       <c r="G57" s="83" t="str">
         <f>IF(PRELIM!AD57="","",$G$8*PRELIM!AD57)</f>
@@ -16482,11 +16500,11 @@
       </c>
       <c r="H57" s="84">
         <f t="shared" si="6"/>
-        <v>16.5</v>
+        <v>45.438461538461539</v>
       </c>
       <c r="I57" s="85">
         <f>IF(H57="","",VLOOKUP(H57,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J57" s="83" t="str">
         <f>IF(MIDTERM!P57="","",$J$8*MIDTERM!P57)</f>
@@ -19567,7 +19585,7 @@
   <dimension ref="A1:AK135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19837,7 +19855,9 @@
       <c r="G5" s="108">
         <v>20</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="108">
+        <v>60</v>
+      </c>
       <c r="I5" s="108"/>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
@@ -19846,11 +19866,21 @@
       <c r="N5" s="108"/>
       <c r="O5" s="330"/>
       <c r="P5" s="307"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
+      <c r="Q5" s="108">
+        <v>20</v>
+      </c>
+      <c r="R5" s="108">
+        <v>20</v>
+      </c>
+      <c r="S5" s="108">
+        <v>20</v>
+      </c>
+      <c r="T5" s="108">
+        <v>20</v>
+      </c>
+      <c r="U5" s="108">
+        <v>20</v>
+      </c>
       <c r="V5" s="108"/>
       <c r="W5" s="108"/>
       <c r="X5" s="108"/>
@@ -19887,7 +19917,9 @@
       <c r="G6" s="313" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="313"/>
+      <c r="H6" s="313" t="s">
+        <v>255</v>
+      </c>
       <c r="I6" s="313"/>
       <c r="J6" s="313"/>
       <c r="K6" s="313"/>
@@ -19896,22 +19928,32 @@
       <c r="N6" s="313"/>
       <c r="O6" s="331">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
+      <c r="Q6" s="313" t="s">
+        <v>250</v>
+      </c>
+      <c r="R6" s="313" t="s">
+        <v>251</v>
+      </c>
+      <c r="S6" s="313" t="s">
+        <v>252</v>
+      </c>
+      <c r="T6" s="313" t="s">
+        <v>253</v>
+      </c>
+      <c r="U6" s="313" t="s">
+        <v>254</v>
+      </c>
       <c r="V6" s="313"/>
       <c r="W6" s="313"/>
       <c r="X6" s="313"/>
       <c r="Y6" s="313"/>
       <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="AA6" s="358">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AB6" s="307"/>
       <c r="AC6" s="365">
@@ -20036,7 +20078,9 @@
       <c r="G9" s="109">
         <v>15</v>
       </c>
-      <c r="H9" s="109"/>
+      <c r="H9" s="109">
+        <v>60</v>
+      </c>
       <c r="I9" s="109"/>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
@@ -20045,42 +20089,54 @@
       <c r="N9" s="109"/>
       <c r="O9" s="60">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="P9" s="67">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v>60</v>
-      </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
+        <v>78.461538461538467</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>20</v>
+      </c>
+      <c r="R9" s="109">
+        <v>20</v>
+      </c>
+      <c r="S9" s="109">
+        <v>20</v>
+      </c>
+      <c r="T9" s="109">
+        <v>20</v>
+      </c>
+      <c r="U9" s="109">
+        <v>20</v>
+      </c>
       <c r="V9" s="109"/>
       <c r="W9" s="109"/>
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
       <c r="Z9" s="109"/>
-      <c r="AA9" s="60" t="str">
+      <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v/>
-      </c>
-      <c r="AB9" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v/>
+        <v>36.666666666666664</v>
       </c>
       <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v>19.8</v>
+        <v>71.358974358974365</v>
       </c>
       <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -20111,7 +20167,9 @@
         <v>12</v>
       </c>
       <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="H10" s="109">
+        <v>30</v>
+      </c>
       <c r="I10" s="109"/>
       <c r="J10" s="109"/>
       <c r="K10" s="109"/>
@@ -20120,42 +20178,54 @@
       <c r="N10" s="109"/>
       <c r="O10" s="60">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P10" s="67">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="Q10" s="109">
+        <v>20</v>
+      </c>
+      <c r="R10" s="109">
+        <v>20</v>
+      </c>
+      <c r="S10" s="109">
+        <v>20</v>
+      </c>
+      <c r="T10" s="109">
+        <v>20</v>
+      </c>
+      <c r="U10" s="109">
+        <v>20</v>
+      </c>
       <c r="V10" s="109"/>
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
       <c r="Z10" s="109"/>
-      <c r="AA10" s="60" t="str">
+      <c r="AA10" s="60">
         <f t="shared" ref="AA10:AA40" si="2">IF(SUM(Q10:Z10)=0,"",SUM(Q10:Z10))</f>
-        <v/>
-      </c>
-      <c r="AB10" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="67">
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
-        <v/>
-      </c>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="111">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v/>
+        <v>56.666666666666664</v>
       </c>
       <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v>14.142857142857142</v>
+        <v>67.497435897435906</v>
       </c>
       <c r="AF10" s="64">
         <f>CRS!I10</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG10" s="61"/>
       <c r="AH10" s="61"/>
@@ -20182,7 +20252,9 @@
       <c r="E11" s="109"/>
       <c r="F11" s="109"/>
       <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
+      <c r="H11" s="109">
+        <v>0</v>
+      </c>
       <c r="I11" s="109"/>
       <c r="J11" s="109"/>
       <c r="K11" s="109"/>
@@ -20259,7 +20331,9 @@
       <c r="G12" s="109">
         <v>15</v>
       </c>
-      <c r="H12" s="109"/>
+      <c r="H12" s="109">
+        <v>50</v>
+      </c>
       <c r="I12" s="109"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
@@ -20268,29 +20342,39 @@
       <c r="N12" s="109"/>
       <c r="O12" s="60">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="P12" s="67">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
+        <v>70.769230769230774</v>
+      </c>
+      <c r="Q12" s="109">
+        <v>20</v>
+      </c>
+      <c r="R12" s="109">
+        <v>20</v>
+      </c>
+      <c r="S12" s="109">
+        <v>20</v>
+      </c>
+      <c r="T12" s="109">
+        <v>20</v>
+      </c>
+      <c r="U12" s="109">
+        <v>20</v>
+      </c>
       <c r="V12" s="109"/>
       <c r="W12" s="109"/>
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
       <c r="Z12" s="109"/>
-      <c r="AA12" s="60" t="str">
+      <c r="AA12" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB12" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC12" s="111"/>
       <c r="AD12" s="67" t="str">
@@ -20299,11 +20383,11 @@
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>19.8</v>
+        <v>56.353846153846156</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
@@ -20334,7 +20418,9 @@
         <v>18</v>
       </c>
       <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="H13" s="109">
+        <v>30</v>
+      </c>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
       <c r="K13" s="109"/>
@@ -20343,29 +20429,39 @@
       <c r="N13" s="109"/>
       <c r="O13" s="60">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="P13" s="67">
         <f t="shared" si="1"/>
-        <v>54.285714285714285</v>
-      </c>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
+        <v>52.307692307692314</v>
+      </c>
+      <c r="Q13" s="109">
+        <v>20</v>
+      </c>
+      <c r="R13" s="109">
+        <v>20</v>
+      </c>
+      <c r="S13" s="109">
+        <v>20</v>
+      </c>
+      <c r="T13" s="109">
+        <v>20</v>
+      </c>
+      <c r="U13" s="109">
+        <v>20</v>
+      </c>
       <c r="V13" s="109"/>
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
       <c r="Z13" s="109"/>
-      <c r="AA13" s="60" t="str">
+      <c r="AA13" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC13" s="111"/>
       <c r="AD13" s="67" t="str">
@@ -20374,11 +20470,11 @@
       </c>
       <c r="AE13" s="66">
         <f>CRS!H13</f>
-        <v>17.914285714285715</v>
+        <v>50.261538461538464</v>
       </c>
       <c r="AF13" s="64">
         <f>CRS!I13</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="55"/>
@@ -20411,7 +20507,9 @@
       <c r="G14" s="109">
         <v>18</v>
       </c>
-      <c r="H14" s="109"/>
+      <c r="H14" s="109">
+        <v>50</v>
+      </c>
       <c r="I14" s="109"/>
       <c r="J14" s="109"/>
       <c r="K14" s="109"/>
@@ -20420,29 +20518,39 @@
       <c r="N14" s="109"/>
       <c r="O14" s="60">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="P14" s="67">
         <f t="shared" si="1"/>
-        <v>87.142857142857139</v>
-      </c>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
+        <v>85.384615384615387</v>
+      </c>
+      <c r="Q14" s="109">
+        <v>20</v>
+      </c>
+      <c r="R14" s="109">
+        <v>20</v>
+      </c>
+      <c r="S14" s="109">
+        <v>20</v>
+      </c>
+      <c r="T14" s="109">
+        <v>20</v>
+      </c>
+      <c r="U14" s="109">
+        <v>20</v>
+      </c>
       <c r="V14" s="109"/>
       <c r="W14" s="109"/>
       <c r="X14" s="109"/>
       <c r="Y14" s="109"/>
       <c r="Z14" s="109"/>
-      <c r="AA14" s="60" t="str">
+      <c r="AA14" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB14" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC14" s="111"/>
       <c r="AD14" s="67" t="str">
@@ -20451,11 +20559,11 @@
       </c>
       <c r="AE14" s="66">
         <f>CRS!H14</f>
-        <v>28.757142857142856</v>
+        <v>61.176923076923075</v>
       </c>
       <c r="AF14" s="64">
         <f>CRS!I14</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG14" s="55"/>
       <c r="AH14" s="55"/>
@@ -20488,7 +20596,9 @@
       <c r="G15" s="109">
         <v>18</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="109">
+        <v>50</v>
+      </c>
       <c r="I15" s="109"/>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
@@ -20497,29 +20607,39 @@
       <c r="N15" s="109"/>
       <c r="O15" s="60">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P15" s="67">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="Q15" s="109">
+        <v>20</v>
+      </c>
+      <c r="R15" s="109">
+        <v>20</v>
+      </c>
+      <c r="S15" s="109">
+        <v>20</v>
+      </c>
+      <c r="T15" s="109">
+        <v>20</v>
+      </c>
+      <c r="U15" s="109">
+        <v>20</v>
+      </c>
       <c r="V15" s="109"/>
       <c r="W15" s="109"/>
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
       <c r="Z15" s="109"/>
-      <c r="AA15" s="60" t="str">
+      <c r="AA15" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB15" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC15" s="111"/>
       <c r="AD15" s="67" t="str">
@@ -20528,11 +20648,11 @@
       </c>
       <c r="AE15" s="66">
         <f>CRS!H15</f>
-        <v>23.571428571428573</v>
+        <v>58.384615384615387</v>
       </c>
       <c r="AF15" s="64">
         <f>CRS!I15</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="55"/>
@@ -20563,7 +20683,9 @@
         <v>15</v>
       </c>
       <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
+      <c r="H16" s="109">
+        <v>50</v>
+      </c>
       <c r="I16" s="109"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
@@ -20572,42 +20694,54 @@
       <c r="N16" s="109"/>
       <c r="O16" s="60">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="P16" s="67">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
+        <v>65.384615384615387</v>
+      </c>
+      <c r="Q16" s="109">
+        <v>20</v>
+      </c>
+      <c r="R16" s="109">
+        <v>20</v>
+      </c>
+      <c r="S16" s="109">
+        <v>20</v>
+      </c>
+      <c r="T16" s="109">
+        <v>20</v>
+      </c>
+      <c r="U16" s="109">
+        <v>20</v>
+      </c>
       <c r="V16" s="109"/>
       <c r="W16" s="109"/>
       <c r="X16" s="109"/>
       <c r="Y16" s="109"/>
       <c r="Z16" s="109"/>
-      <c r="AA16" s="60" t="str">
+      <c r="AA16" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB16" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB16" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="111">
+        <v>64</v>
+      </c>
+      <c r="AD16" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.111111111111114</v>
       </c>
       <c r="AE16" s="66">
         <f>CRS!H16</f>
-        <v>16.5</v>
+        <v>78.754700854700857</v>
       </c>
       <c r="AF16" s="64">
         <f>CRS!I16</f>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="AG16" s="55"/>
       <c r="AH16" s="55"/>
@@ -20640,7 +20774,9 @@
       <c r="G17" s="109">
         <v>18</v>
       </c>
-      <c r="H17" s="109"/>
+      <c r="H17" s="109">
+        <v>60</v>
+      </c>
       <c r="I17" s="109"/>
       <c r="J17" s="109"/>
       <c r="K17" s="109"/>
@@ -20649,29 +20785,39 @@
       <c r="N17" s="109"/>
       <c r="O17" s="60">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="P17" s="67">
         <f t="shared" si="1"/>
-        <v>82.857142857142861</v>
-      </c>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
+        <v>90.769230769230774</v>
+      </c>
+      <c r="Q17" s="109">
+        <v>20</v>
+      </c>
+      <c r="R17" s="109">
+        <v>20</v>
+      </c>
+      <c r="S17" s="109">
+        <v>20</v>
+      </c>
+      <c r="T17" s="109">
+        <v>20</v>
+      </c>
+      <c r="U17" s="109">
+        <v>0</v>
+      </c>
       <c r="V17" s="109"/>
       <c r="W17" s="109"/>
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="60" t="str">
+      <c r="AA17" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB17" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB17" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC17" s="111"/>
       <c r="AD17" s="67" t="str">
@@ -20680,11 +20826,11 @@
       </c>
       <c r="AE17" s="66">
         <f>CRS!H17</f>
-        <v>27.342857142857145</v>
+        <v>56.353846153846163</v>
       </c>
       <c r="AF17" s="64">
         <f>CRS!I17</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AG17" s="55"/>
       <c r="AH17" s="55"/>
@@ -20710,7 +20856,9 @@
         <v>15</v>
       </c>
       <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
+      <c r="H18" s="109">
+        <v>20</v>
+      </c>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="109"/>
@@ -20719,29 +20867,39 @@
       <c r="N18" s="109"/>
       <c r="O18" s="60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P18" s="67">
         <f t="shared" si="1"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
+        <v>26.923076923076923</v>
+      </c>
+      <c r="Q18" s="109">
+        <v>20</v>
+      </c>
+      <c r="R18" s="109">
+        <v>0</v>
+      </c>
+      <c r="S18" s="109">
+        <v>20</v>
+      </c>
+      <c r="T18" s="109">
+        <v>20</v>
+      </c>
+      <c r="U18" s="109">
+        <v>20</v>
+      </c>
       <c r="V18" s="109"/>
       <c r="W18" s="109"/>
       <c r="X18" s="109"/>
       <c r="Y18" s="109"/>
       <c r="Z18" s="109"/>
-      <c r="AA18" s="60" t="str">
+      <c r="AA18" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB18" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB18" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC18" s="111"/>
       <c r="AD18" s="67" t="str">
@@ -20750,11 +20908,11 @@
       </c>
       <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v>7.0714285714285712</v>
+        <v>35.284615384615385</v>
       </c>
       <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -20784,7 +20942,9 @@
       <c r="G19" s="109">
         <v>15</v>
       </c>
-      <c r="H19" s="109"/>
+      <c r="H19" s="109">
+        <v>50</v>
+      </c>
       <c r="I19" s="109"/>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
@@ -20793,29 +20953,39 @@
       <c r="N19" s="109"/>
       <c r="O19" s="60">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P19" s="67">
         <f t="shared" si="1"/>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
+        <v>75.384615384615387</v>
+      </c>
+      <c r="Q19" s="109">
+        <v>20</v>
+      </c>
+      <c r="R19" s="109">
+        <v>20</v>
+      </c>
+      <c r="S19" s="109">
+        <v>20</v>
+      </c>
+      <c r="T19" s="109">
+        <v>20</v>
+      </c>
+      <c r="U19" s="109">
+        <v>20</v>
+      </c>
       <c r="V19" s="109"/>
       <c r="W19" s="109"/>
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="60" t="str">
+      <c r="AA19" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB19" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC19" s="111"/>
       <c r="AD19" s="67" t="str">
@@ -20824,11 +20994,11 @@
       </c>
       <c r="AE19" s="66">
         <f>CRS!H19</f>
-        <v>22.62857142857143</v>
+        <v>57.876923076923077</v>
       </c>
       <c r="AF19" s="64">
         <f>CRS!I19</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG19" s="55"/>
       <c r="AH19" s="55"/>
@@ -20858,7 +21028,9 @@
       <c r="G20" s="109">
         <v>12</v>
       </c>
-      <c r="H20" s="109"/>
+      <c r="H20" s="109">
+        <v>60</v>
+      </c>
       <c r="I20" s="109"/>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
@@ -20867,29 +21039,39 @@
       <c r="N20" s="109"/>
       <c r="O20" s="60">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="P20" s="67">
         <f t="shared" si="1"/>
-        <v>67.142857142857139</v>
-      </c>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
+        <v>82.307692307692307</v>
+      </c>
+      <c r="Q20" s="109">
+        <v>20</v>
+      </c>
+      <c r="R20" s="109">
+        <v>20</v>
+      </c>
+      <c r="S20" s="109">
+        <v>20</v>
+      </c>
+      <c r="T20" s="109">
+        <v>20</v>
+      </c>
+      <c r="U20" s="109">
+        <v>20</v>
+      </c>
       <c r="V20" s="109"/>
       <c r="W20" s="109"/>
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
       <c r="Z20" s="109"/>
-      <c r="AA20" s="60" t="str">
+      <c r="AA20" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB20" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC20" s="111"/>
       <c r="AD20" s="67" t="str">
@@ -20898,11 +21080,11 @@
       </c>
       <c r="AE20" s="66">
         <f>CRS!H20</f>
-        <v>22.157142857142858</v>
+        <v>60.161538461538463</v>
       </c>
       <c r="AF20" s="64">
         <f>CRS!I20</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
@@ -20932,7 +21114,9 @@
       <c r="G21" s="109">
         <v>12</v>
       </c>
-      <c r="H21" s="109"/>
+      <c r="H21" s="109">
+        <v>50</v>
+      </c>
       <c r="I21" s="109"/>
       <c r="J21" s="109"/>
       <c r="K21" s="109"/>
@@ -20941,29 +21125,39 @@
       <c r="N21" s="109"/>
       <c r="O21" s="60">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="P21" s="67">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
+        <v>70.769230769230774</v>
+      </c>
+      <c r="Q21" s="109">
+        <v>20</v>
+      </c>
+      <c r="R21" s="109">
+        <v>20</v>
+      </c>
+      <c r="S21" s="109">
+        <v>20</v>
+      </c>
+      <c r="T21" s="109">
+        <v>20</v>
+      </c>
+      <c r="U21" s="109">
+        <v>0</v>
+      </c>
       <c r="V21" s="109"/>
       <c r="W21" s="109"/>
       <c r="X21" s="109"/>
       <c r="Y21" s="109"/>
       <c r="Z21" s="109"/>
-      <c r="AA21" s="60" t="str">
+      <c r="AA21" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB21" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB21" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC21" s="111"/>
       <c r="AD21" s="67" t="str">
@@ -20972,11 +21166,11 @@
       </c>
       <c r="AE21" s="66">
         <f>CRS!H21</f>
-        <v>19.8</v>
+        <v>49.753846153846155</v>
       </c>
       <c r="AF21" s="64">
         <f>CRS!I21</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="55"/>
@@ -21004,7 +21198,9 @@
         <v>15</v>
       </c>
       <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
+      <c r="H22" s="109">
+        <v>60</v>
+      </c>
       <c r="I22" s="109"/>
       <c r="J22" s="109"/>
       <c r="K22" s="109"/>
@@ -21013,42 +21209,54 @@
       <c r="N22" s="109"/>
       <c r="O22" s="60">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P22" s="67">
         <f t="shared" si="1"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="Q22" s="109">
+        <v>20</v>
+      </c>
+      <c r="R22" s="109">
+        <v>20</v>
+      </c>
+      <c r="S22" s="109">
+        <v>20</v>
+      </c>
+      <c r="T22" s="109">
+        <v>20</v>
+      </c>
+      <c r="U22" s="109">
+        <v>20</v>
+      </c>
       <c r="V22" s="109"/>
       <c r="W22" s="109"/>
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
       <c r="Z22" s="109"/>
-      <c r="AA22" s="60" t="str">
+      <c r="AA22" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB22" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="111">
+        <v>50</v>
+      </c>
+      <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>55.555555555555557</v>
       </c>
       <c r="AE22" s="66">
         <f>CRS!H22</f>
-        <v>14.142857142857142</v>
+        <v>74.73504273504274</v>
       </c>
       <c r="AF22" s="64">
         <f>CRS!I22</f>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55"/>
@@ -21078,7 +21286,9 @@
       <c r="G23" s="109">
         <v>15</v>
       </c>
-      <c r="H23" s="109"/>
+      <c r="H23" s="109">
+        <v>60</v>
+      </c>
       <c r="I23" s="109"/>
       <c r="J23" s="109"/>
       <c r="K23" s="109"/>
@@ -21087,29 +21297,39 @@
       <c r="N23" s="109"/>
       <c r="O23" s="60">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="P23" s="67">
         <f t="shared" si="1"/>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
+        <v>83.07692307692308</v>
+      </c>
+      <c r="Q23" s="109">
+        <v>20</v>
+      </c>
+      <c r="R23" s="109">
+        <v>0</v>
+      </c>
+      <c r="S23" s="109">
+        <v>20</v>
+      </c>
+      <c r="T23" s="109">
+        <v>20</v>
+      </c>
+      <c r="U23" s="109">
+        <v>20</v>
+      </c>
       <c r="V23" s="109"/>
       <c r="W23" s="109"/>
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
-      <c r="AA23" s="60" t="str">
+      <c r="AA23" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB23" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC23" s="111"/>
       <c r="AD23" s="67" t="str">
@@ -21118,11 +21338,11 @@
       </c>
       <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v>22.62857142857143</v>
+        <v>53.815384615384616</v>
       </c>
       <c r="AF23" s="64">
         <f>CRS!I23</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="55"/>
@@ -21152,7 +21372,9 @@
       <c r="G24" s="109">
         <v>15</v>
       </c>
-      <c r="H24" s="109"/>
+      <c r="H24" s="109">
+        <v>40</v>
+      </c>
       <c r="I24" s="109"/>
       <c r="J24" s="109"/>
       <c r="K24" s="109"/>
@@ -21161,42 +21383,54 @@
       <c r="N24" s="109"/>
       <c r="O24" s="60">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P24" s="67">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="Q24" s="109">
+        <v>20</v>
+      </c>
+      <c r="R24" s="109">
+        <v>20</v>
+      </c>
+      <c r="S24" s="109">
+        <v>20</v>
+      </c>
+      <c r="T24" s="109">
+        <v>20</v>
+      </c>
+      <c r="U24" s="109">
+        <v>0</v>
+      </c>
       <c r="V24" s="109"/>
       <c r="W24" s="109"/>
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="109"/>
-      <c r="AA24" s="60" t="str">
+      <c r="AA24" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB24" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB24" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC24" s="111">
+        <v>50</v>
+      </c>
+      <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>55.555555555555557</v>
       </c>
       <c r="AE24" s="66">
         <f>CRS!H24</f>
-        <v>23.571428571428573</v>
+        <v>68.135042735042731</v>
       </c>
       <c r="AF24" s="64">
         <f>CRS!I24</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG24" s="55"/>
       <c r="AH24" s="55"/>
@@ -21226,7 +21460,9 @@
       <c r="G25" s="109">
         <v>15</v>
       </c>
-      <c r="H25" s="109"/>
+      <c r="H25" s="109">
+        <v>30</v>
+      </c>
       <c r="I25" s="109"/>
       <c r="J25" s="109"/>
       <c r="K25" s="109"/>
@@ -21235,29 +21471,39 @@
       <c r="N25" s="109"/>
       <c r="O25" s="60">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P25" s="67">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="Q25" s="109">
+        <v>20</v>
+      </c>
+      <c r="R25" s="109">
+        <v>20</v>
+      </c>
+      <c r="S25" s="109">
+        <v>20</v>
+      </c>
+      <c r="T25" s="109">
+        <v>0</v>
+      </c>
+      <c r="U25" s="109">
+        <v>20</v>
+      </c>
       <c r="V25" s="109"/>
       <c r="W25" s="109"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
       <c r="Z25" s="109"/>
-      <c r="AA25" s="60" t="str">
+      <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB25" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC25" s="111"/>
       <c r="AD25" s="67" t="str">
@@ -21266,11 +21512,11 @@
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>23.571428571428573</v>
+        <v>46.707692307692312</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21296,7 +21542,9 @@
       </c>
       <c r="F26" s="109"/>
       <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
+      <c r="H26" s="109">
+        <v>50</v>
+      </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
@@ -21305,42 +21553,54 @@
       <c r="N26" s="109"/>
       <c r="O26" s="60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="P26" s="67">
         <f t="shared" si="1"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
+        <v>50</v>
+      </c>
+      <c r="Q26" s="109">
+        <v>0</v>
+      </c>
+      <c r="R26" s="109">
+        <v>20</v>
+      </c>
+      <c r="S26" s="109">
+        <v>20</v>
+      </c>
+      <c r="T26" s="109">
+        <v>20</v>
+      </c>
+      <c r="U26" s="109">
+        <v>20</v>
+      </c>
       <c r="V26" s="109"/>
       <c r="W26" s="109"/>
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
       <c r="Z26" s="109"/>
-      <c r="AA26" s="60" t="str">
+      <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB26" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="111">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>44.444444444444443</v>
       </c>
       <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v>7.0714285714285712</v>
+        <v>58.01111111111112</v>
       </c>
       <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG26" s="300"/>
       <c r="AH26" s="298" t="s">
@@ -21368,7 +21628,9 @@
       </c>
       <c r="F27" s="109"/>
       <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
+      <c r="H27" s="109">
+        <v>50</v>
+      </c>
       <c r="I27" s="109"/>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
@@ -21377,29 +21639,39 @@
       <c r="N27" s="109"/>
       <c r="O27" s="60">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="P27" s="67">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="Q27" s="109">
+        <v>0</v>
+      </c>
+      <c r="R27" s="109">
+        <v>20</v>
+      </c>
+      <c r="S27" s="109">
+        <v>20</v>
+      </c>
+      <c r="T27" s="109">
+        <v>20</v>
+      </c>
+      <c r="U27" s="109">
+        <v>20</v>
+      </c>
       <c r="V27" s="109"/>
       <c r="W27" s="109"/>
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
       <c r="Z27" s="109"/>
-      <c r="AA27" s="60" t="str">
+      <c r="AA27" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB27" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB27" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC27" s="111"/>
       <c r="AD27" s="67" t="str">
@@ -21408,11 +21680,11 @@
       </c>
       <c r="AE27" s="66">
         <f>CRS!H27</f>
-        <v>9.4285714285714288</v>
+        <v>44.169230769230772</v>
       </c>
       <c r="AF27" s="64">
         <f>CRS!I27</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG27" s="301"/>
       <c r="AH27" s="299"/>
@@ -21438,7 +21710,9 @@
       <c r="G28" s="109">
         <v>15</v>
       </c>
-      <c r="H28" s="109"/>
+      <c r="H28" s="109">
+        <v>0</v>
+      </c>
       <c r="I28" s="109"/>
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
@@ -21451,38 +21725,50 @@
       </c>
       <c r="P28" s="67">
         <f t="shared" si="1"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="Q28" s="109">
+        <v>0</v>
+      </c>
+      <c r="R28" s="109">
+        <v>20</v>
+      </c>
+      <c r="S28" s="109">
+        <v>20</v>
+      </c>
+      <c r="T28" s="109">
+        <v>20</v>
+      </c>
+      <c r="U28" s="109">
+        <v>20</v>
+      </c>
       <c r="V28" s="109"/>
       <c r="W28" s="109"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60" t="str">
+      <c r="AA28" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB28" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB28" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC28" s="111">
+        <v>66</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="AE28" s="66">
         <f>CRS!H28</f>
-        <v>7.0714285714285712</v>
+        <v>55.141025641025642</v>
       </c>
       <c r="AF28" s="64">
         <f>CRS!I28</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG28" s="301"/>
       <c r="AH28" s="299"/>
@@ -21506,7 +21792,9 @@
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
       <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="109">
+        <v>0</v>
+      </c>
       <c r="I29" s="109"/>
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
@@ -21578,7 +21866,9 @@
       <c r="G30" s="109">
         <v>15</v>
       </c>
-      <c r="H30" s="109"/>
+      <c r="H30" s="109">
+        <v>40</v>
+      </c>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
       <c r="K30" s="109"/>
@@ -21587,42 +21877,54 @@
       <c r="N30" s="109"/>
       <c r="O30" s="60">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="P30" s="67">
         <f t="shared" si="1"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="Q30" s="109">
+        <v>20</v>
+      </c>
+      <c r="R30" s="109">
+        <v>20</v>
+      </c>
+      <c r="S30" s="109">
+        <v>20</v>
+      </c>
+      <c r="T30" s="109">
+        <v>20</v>
+      </c>
+      <c r="U30" s="109">
+        <v>20</v>
+      </c>
       <c r="V30" s="109"/>
       <c r="W30" s="109"/>
       <c r="X30" s="109"/>
       <c r="Y30" s="109"/>
       <c r="Z30" s="109"/>
-      <c r="AA30" s="60" t="str">
+      <c r="AA30" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB30" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB30" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC30" s="111">
+        <v>57</v>
+      </c>
+      <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>63.333333333333329</v>
       </c>
       <c r="AE30" s="66">
         <f>CRS!H30</f>
-        <v>14.142857142857142</v>
+        <v>72.302564102564105</v>
       </c>
       <c r="AF30" s="64">
         <f>CRS!I30</f>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AG30" s="301"/>
       <c r="AH30" s="299"/>
@@ -21650,7 +21952,9 @@
         <v>12</v>
       </c>
       <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
+      <c r="H31" s="109">
+        <v>30</v>
+      </c>
       <c r="I31" s="109"/>
       <c r="J31" s="109"/>
       <c r="K31" s="109"/>
@@ -21659,29 +21963,39 @@
       <c r="N31" s="109"/>
       <c r="O31" s="60">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="P31" s="67">
         <f t="shared" si="1"/>
-        <v>45.714285714285715</v>
-      </c>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
+        <v>47.692307692307693</v>
+      </c>
+      <c r="Q31" s="109">
+        <v>20</v>
+      </c>
+      <c r="R31" s="109">
+        <v>20</v>
+      </c>
+      <c r="S31" s="109">
+        <v>20</v>
+      </c>
+      <c r="T31" s="109">
+        <v>20</v>
+      </c>
+      <c r="U31" s="109">
+        <v>20</v>
+      </c>
       <c r="V31" s="109"/>
       <c r="W31" s="109"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
-      <c r="AA31" s="60" t="str">
+      <c r="AA31" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB31" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB31" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC31" s="111"/>
       <c r="AD31" s="67" t="str">
@@ -21690,11 +22004,11 @@
       </c>
       <c r="AE31" s="66">
         <f>CRS!H31</f>
-        <v>15.085714285714287</v>
+        <v>48.738461538461536</v>
       </c>
       <c r="AF31" s="64">
         <f>CRS!I31</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG31" s="301"/>
       <c r="AH31" s="299"/>
@@ -21720,7 +22034,9 @@
         <v>12</v>
       </c>
       <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="109">
+        <v>40</v>
+      </c>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
       <c r="K32" s="109"/>
@@ -21729,29 +22045,39 @@
       <c r="N32" s="109"/>
       <c r="O32" s="60">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P32" s="67">
         <f t="shared" si="1"/>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
+        <v>40</v>
+      </c>
+      <c r="Q32" s="109">
+        <v>0</v>
+      </c>
+      <c r="R32" s="109">
+        <v>0</v>
+      </c>
+      <c r="S32" s="109">
+        <v>20</v>
+      </c>
+      <c r="T32" s="109">
+        <v>20</v>
+      </c>
+      <c r="U32" s="109">
+        <v>0</v>
+      </c>
       <c r="V32" s="109"/>
       <c r="W32" s="109"/>
       <c r="X32" s="109"/>
       <c r="Y32" s="109"/>
       <c r="Z32" s="109"/>
-      <c r="AA32" s="60" t="str">
+      <c r="AA32" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB32" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="AB32" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="AC32" s="111"/>
       <c r="AD32" s="67" t="str">
@@ -21760,11 +22086,11 @@
       </c>
       <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v>5.6571428571428575</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="AF32" s="64">
         <f>CRS!I32</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG32" s="301"/>
       <c r="AH32" s="299"/>
@@ -21792,7 +22118,9 @@
       <c r="G33" s="109">
         <v>15</v>
       </c>
-      <c r="H33" s="109"/>
+      <c r="H33" s="109">
+        <v>30</v>
+      </c>
       <c r="I33" s="109"/>
       <c r="J33" s="109"/>
       <c r="K33" s="109"/>
@@ -21801,42 +22129,54 @@
       <c r="N33" s="109"/>
       <c r="O33" s="60">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P33" s="67">
         <f t="shared" si="1"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="Q33" s="109">
+        <v>20</v>
+      </c>
+      <c r="R33" s="109">
+        <v>0</v>
+      </c>
+      <c r="S33" s="109">
+        <v>20</v>
+      </c>
+      <c r="T33" s="109">
+        <v>20</v>
+      </c>
+      <c r="U33" s="109">
+        <v>20</v>
+      </c>
       <c r="V33" s="109"/>
       <c r="W33" s="109"/>
       <c r="X33" s="109"/>
       <c r="Y33" s="109"/>
       <c r="Z33" s="109"/>
-      <c r="AA33" s="60" t="str">
+      <c r="AA33" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB33" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB33" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC33" s="111">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>46.666666666666664</v>
       </c>
       <c r="AE33" s="66">
         <f>CRS!H33</f>
-        <v>14.142857142857142</v>
+        <v>57.497435897435899</v>
       </c>
       <c r="AF33" s="64">
         <f>CRS!I33</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG33" s="301"/>
       <c r="AH33" s="299"/>
@@ -21865,7 +22205,9 @@
       </c>
       <c r="F34" s="109"/>
       <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
+      <c r="H34" s="109">
+        <v>60</v>
+      </c>
       <c r="I34" s="109"/>
       <c r="J34" s="109"/>
       <c r="K34" s="109"/>
@@ -21874,42 +22216,54 @@
       <c r="N34" s="109"/>
       <c r="O34" s="60">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P34" s="67">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="Q34" s="109">
+        <v>0</v>
+      </c>
+      <c r="R34" s="109">
+        <v>20</v>
+      </c>
+      <c r="S34" s="109">
+        <v>20</v>
+      </c>
+      <c r="T34" s="109">
+        <v>20</v>
+      </c>
+      <c r="U34" s="109">
+        <v>20</v>
+      </c>
       <c r="V34" s="109"/>
       <c r="W34" s="109"/>
       <c r="X34" s="109"/>
       <c r="Y34" s="109"/>
       <c r="Z34" s="109"/>
-      <c r="AA34" s="60" t="str">
+      <c r="AA34" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB34" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB34" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AC34" s="111">
+        <v>58</v>
+      </c>
+      <c r="AD34" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>64.444444444444443</v>
       </c>
       <c r="AE34" s="66">
         <f>CRS!H34</f>
-        <v>9.4285714285714288</v>
+        <v>68.618803418803424</v>
       </c>
       <c r="AF34" s="64">
         <f>CRS!I34</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG34" s="301"/>
       <c r="AH34" s="299"/>
@@ -21938,7 +22292,9 @@
       </c>
       <c r="F35" s="109"/>
       <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
+      <c r="H35" s="109">
+        <v>40</v>
+      </c>
       <c r="I35" s="109"/>
       <c r="J35" s="109"/>
       <c r="K35" s="109"/>
@@ -21947,29 +22303,39 @@
       <c r="N35" s="109"/>
       <c r="O35" s="60">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P35" s="67">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="Q35" s="109">
+        <v>20</v>
+      </c>
+      <c r="R35" s="109">
+        <v>0</v>
+      </c>
+      <c r="S35" s="109">
+        <v>20</v>
+      </c>
+      <c r="T35" s="109">
+        <v>20</v>
+      </c>
+      <c r="U35" s="109">
+        <v>20</v>
+      </c>
       <c r="V35" s="109"/>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
       <c r="Y35" s="109"/>
       <c r="Z35" s="109"/>
-      <c r="AA35" s="60" t="str">
+      <c r="AA35" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB35" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB35" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC35" s="111"/>
       <c r="AD35" s="67" t="str">
@@ -21978,11 +22344,11 @@
       </c>
       <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v>9.4285714285714288</v>
+        <v>41.630769230769232</v>
       </c>
       <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG35" s="301"/>
       <c r="AH35" s="299"/>
@@ -22015,7 +22381,9 @@
       <c r="G36" s="109">
         <v>15</v>
       </c>
-      <c r="H36" s="109"/>
+      <c r="H36" s="109">
+        <v>60</v>
+      </c>
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
       <c r="K36" s="109"/>
@@ -22024,29 +22392,39 @@
       <c r="N36" s="109"/>
       <c r="O36" s="60">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="P36" s="67">
         <f t="shared" si="1"/>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
+        <v>83.07692307692308</v>
+      </c>
+      <c r="Q36" s="109">
+        <v>20</v>
+      </c>
+      <c r="R36" s="109">
+        <v>20</v>
+      </c>
+      <c r="S36" s="109">
+        <v>20</v>
+      </c>
+      <c r="T36" s="109">
+        <v>20</v>
+      </c>
+      <c r="U36" s="109">
+        <v>20</v>
+      </c>
       <c r="V36" s="109"/>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
       <c r="Y36" s="109"/>
       <c r="Z36" s="109"/>
-      <c r="AA36" s="60" t="str">
+      <c r="AA36" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB36" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB36" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC36" s="111"/>
       <c r="AD36" s="67" t="str">
@@ -22055,11 +22433,11 @@
       </c>
       <c r="AE36" s="66">
         <f>CRS!H36</f>
-        <v>22.62857142857143</v>
+        <v>60.415384615384617</v>
       </c>
       <c r="AF36" s="64">
         <f>CRS!I36</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG36" s="301"/>
       <c r="AH36" s="299"/>
@@ -22086,51 +22464,63 @@
       <c r="E37" s="109"/>
       <c r="F37" s="109"/>
       <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
+      <c r="H37" s="109">
+        <v>60</v>
+      </c>
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
       <c r="K37" s="109"/>
       <c r="L37" s="109"/>
       <c r="M37" s="109"/>
       <c r="N37" s="109"/>
-      <c r="O37" s="60" t="str">
+      <c r="O37" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P37" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P37" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="Q37" s="109">
+        <v>0</v>
+      </c>
+      <c r="R37" s="109">
+        <v>20</v>
+      </c>
+      <c r="S37" s="109">
+        <v>20</v>
+      </c>
+      <c r="T37" s="109">
+        <v>20</v>
+      </c>
+      <c r="U37" s="109">
+        <v>20</v>
+      </c>
       <c r="V37" s="109"/>
       <c r="W37" s="109"/>
       <c r="X37" s="109"/>
       <c r="Y37" s="109"/>
       <c r="Z37" s="109"/>
-      <c r="AA37" s="60" t="str">
+      <c r="AA37" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB37" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC37" s="111"/>
       <c r="AD37" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE37" s="66" t="str">
+      <c r="AE37" s="66">
         <f>CRS!H37</f>
-        <v/>
-      </c>
-      <c r="AF37" s="64" t="str">
+        <v>41.630769230769232</v>
+      </c>
+      <c r="AF37" s="64">
         <f>CRS!I37</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AG37" s="301"/>
       <c r="AH37" s="299"/>
@@ -22163,7 +22553,9 @@
       <c r="G38" s="109">
         <v>20</v>
       </c>
-      <c r="H38" s="109"/>
+      <c r="H38" s="109">
+        <v>40</v>
+      </c>
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
       <c r="K38" s="109"/>
@@ -22172,42 +22564,54 @@
       <c r="N38" s="109"/>
       <c r="O38" s="60">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="P38" s="67">
         <f t="shared" si="1"/>
-        <v>82.857142857142861</v>
-      </c>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
+        <v>75.384615384615387</v>
+      </c>
+      <c r="Q38" s="109">
+        <v>20</v>
+      </c>
+      <c r="R38" s="109">
+        <v>20</v>
+      </c>
+      <c r="S38" s="109">
+        <v>20</v>
+      </c>
+      <c r="T38" s="109">
+        <v>20</v>
+      </c>
+      <c r="U38" s="109">
+        <v>20</v>
+      </c>
       <c r="V38" s="109"/>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
       <c r="Y38" s="109"/>
       <c r="Z38" s="109"/>
-      <c r="AA38" s="60" t="str">
+      <c r="AA38" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB38" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB38" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC38" s="111">
+        <v>86</v>
+      </c>
+      <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>95.555555555555557</v>
       </c>
       <c r="AE38" s="66">
         <f>CRS!H38</f>
-        <v>27.342857142857145</v>
+        <v>90.365811965811972</v>
       </c>
       <c r="AF38" s="64">
         <f>CRS!I38</f>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG38" s="301"/>
       <c r="AH38" s="299"/>
@@ -22238,7 +22642,9 @@
         <v>12</v>
       </c>
       <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
+      <c r="H39" s="109">
+        <v>60</v>
+      </c>
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
       <c r="K39" s="109"/>
@@ -22247,29 +22653,39 @@
       <c r="N39" s="109"/>
       <c r="O39" s="60">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="P39" s="67">
         <f t="shared" si="1"/>
-        <v>38.571428571428577</v>
-      </c>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
-      <c r="U39" s="109"/>
+        <v>66.92307692307692</v>
+      </c>
+      <c r="Q39" s="109">
+        <v>20</v>
+      </c>
+      <c r="R39" s="109">
+        <v>20</v>
+      </c>
+      <c r="S39" s="109">
+        <v>20</v>
+      </c>
+      <c r="T39" s="109">
+        <v>20</v>
+      </c>
+      <c r="U39" s="109">
+        <v>20</v>
+      </c>
       <c r="V39" s="109"/>
       <c r="W39" s="109"/>
       <c r="X39" s="109"/>
       <c r="Y39" s="109"/>
       <c r="Z39" s="109"/>
-      <c r="AA39" s="60" t="str">
+      <c r="AA39" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB39" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB39" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC39" s="111"/>
       <c r="AD39" s="67" t="str">
@@ -22278,11 +22694,11 @@
       </c>
       <c r="AE39" s="66">
         <f>CRS!H39</f>
-        <v>12.728571428571431</v>
+        <v>55.08461538461539</v>
       </c>
       <c r="AF39" s="64">
         <f>CRS!I39</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG39" s="301"/>
       <c r="AH39" s="299"/>
@@ -22311,7 +22727,9 @@
         <v>20</v>
       </c>
       <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
+      <c r="H40" s="109">
+        <v>50</v>
+      </c>
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
       <c r="K40" s="109"/>
@@ -22320,29 +22738,39 @@
       <c r="N40" s="109"/>
       <c r="O40" s="60">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="P40" s="67">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="Q40" s="109">
+        <v>20</v>
+      </c>
+      <c r="R40" s="109">
+        <v>20</v>
+      </c>
+      <c r="S40" s="109">
+        <v>20</v>
+      </c>
+      <c r="T40" s="109">
+        <v>20</v>
+      </c>
+      <c r="U40" s="109">
+        <v>0</v>
+      </c>
       <c r="V40" s="109"/>
       <c r="W40" s="109"/>
       <c r="X40" s="109"/>
       <c r="Y40" s="109"/>
       <c r="Z40" s="109"/>
-      <c r="AA40" s="60" t="str">
+      <c r="AA40" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB40" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB40" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC40" s="111"/>
       <c r="AD40" s="67" t="str">
@@ -22351,11 +22779,11 @@
       </c>
       <c r="AE40" s="66">
         <f>CRS!H40</f>
-        <v>9.4285714285714288</v>
+        <v>44.169230769230772</v>
       </c>
       <c r="AF40" s="64">
         <f>CRS!I40</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG40" s="301"/>
       <c r="AH40" s="299"/>
@@ -22656,9 +23084,9 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H46" s="57" t="str">
+      <c r="H46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="I46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -22686,25 +23114,25 @@
       </c>
       <c r="O46" s="329"/>
       <c r="P46" s="306"/>
-      <c r="Q46" s="57" t="str">
+      <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
-        <v/>
-      </c>
-      <c r="R46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="R46" s="57">
         <f t="shared" ref="R46:Z46" si="6">IF(R5="","",R5)</f>
-        <v/>
-      </c>
-      <c r="S46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="S46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="T46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="U46" s="57">
         <f t="shared" si="6"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="V46" s="57" t="str">
         <f t="shared" si="6"/>
@@ -22763,7 +23191,7 @@
       </c>
       <c r="H47" s="302" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SW04</v>
       </c>
       <c r="I47" s="302" t="str">
         <f t="shared" si="7"/>
@@ -22791,28 +23219,28 @@
       </c>
       <c r="O47" s="304">
         <f>O6</f>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="P47" s="306"/>
       <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
-        <v/>
+        <v>Lab01</v>
       </c>
       <c r="R47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Lab02</v>
       </c>
       <c r="S47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Lab03</v>
       </c>
       <c r="T47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Lab04</v>
       </c>
       <c r="U47" s="302" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Lab05</v>
       </c>
       <c r="V47" s="302" t="str">
         <f t="shared" si="8"/>
@@ -22834,9 +23262,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="304">
         <f>AA6</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AB47" s="307"/>
       <c r="AC47" s="371">
@@ -22956,7 +23384,9 @@
       <c r="G50" s="109">
         <v>18</v>
       </c>
-      <c r="H50" s="109"/>
+      <c r="H50" s="109">
+        <v>50</v>
+      </c>
       <c r="I50" s="109"/>
       <c r="J50" s="109"/>
       <c r="K50" s="109"/>
@@ -22965,29 +23395,39 @@
       <c r="N50" s="109"/>
       <c r="O50" s="60">
         <f t="shared" ref="O50:O80" si="9">IF(SUM(E50:N50)=0,"",SUM(E50:N50))</f>
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P50" s="67">
         <f t="shared" ref="P50:P80" si="10">IF(O50="","",O50/$O$6*100)</f>
-        <v>75.714285714285708</v>
-      </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
+        <v>79.230769230769226</v>
+      </c>
+      <c r="Q50" s="109">
+        <v>20</v>
+      </c>
+      <c r="R50" s="109">
+        <v>0</v>
+      </c>
+      <c r="S50" s="109">
+        <v>20</v>
+      </c>
+      <c r="T50" s="109">
+        <v>20</v>
+      </c>
+      <c r="U50" s="109">
+        <v>20</v>
+      </c>
       <c r="V50" s="109"/>
       <c r="W50" s="109"/>
       <c r="X50" s="109"/>
       <c r="Y50" s="109"/>
       <c r="Z50" s="109"/>
-      <c r="AA50" s="60" t="str">
+      <c r="AA50" s="60">
         <f t="shared" ref="AA50:AA80" si="11">IF(SUM(Q50:Z50)=0,"",SUM(Q50:Z50))</f>
-        <v/>
-      </c>
-      <c r="AB50" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB50" s="67">
         <f t="shared" ref="AB50:AB80" si="12">IF(AA50="","",AA50/$AA$6*100)</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC50" s="111"/>
       <c r="AD50" s="67" t="str">
@@ -22996,11 +23436,11 @@
       </c>
       <c r="AE50" s="66">
         <f>CRS!H50</f>
-        <v>24.985714285714284</v>
+        <v>52.54615384615385</v>
       </c>
       <c r="AF50" s="64">
         <f>CRS!I50</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23028,7 +23468,9 @@
       <c r="G51" s="109">
         <v>15</v>
       </c>
-      <c r="H51" s="109"/>
+      <c r="H51" s="109">
+        <v>50</v>
+      </c>
       <c r="I51" s="109"/>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
@@ -23037,42 +23479,54 @@
       <c r="N51" s="109"/>
       <c r="O51" s="60">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P51" s="67">
         <f t="shared" si="10"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="Q51" s="109">
+        <v>20</v>
+      </c>
+      <c r="R51" s="109">
+        <v>20</v>
+      </c>
+      <c r="S51" s="109">
+        <v>20</v>
+      </c>
+      <c r="T51" s="109">
+        <v>20</v>
+      </c>
+      <c r="U51" s="109">
+        <v>20</v>
+      </c>
       <c r="V51" s="109"/>
       <c r="W51" s="109"/>
       <c r="X51" s="109"/>
       <c r="Y51" s="109"/>
       <c r="Z51" s="109"/>
-      <c r="AA51" s="60" t="str">
+      <c r="AA51" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB51" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB51" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC51" s="111">
+        <v>79</v>
+      </c>
+      <c r="AD51" s="67">
         <f t="shared" si="13"/>
-        <v/>
+        <v>87.777777777777771</v>
       </c>
       <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v>23.571428571428573</v>
+        <v>88.229059829059835</v>
       </c>
       <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23100,7 +23554,9 @@
       <c r="G52" s="109">
         <v>20</v>
       </c>
-      <c r="H52" s="109"/>
+      <c r="H52" s="109">
+        <v>60</v>
+      </c>
       <c r="I52" s="109"/>
       <c r="J52" s="109"/>
       <c r="K52" s="109"/>
@@ -23109,29 +23565,39 @@
       <c r="N52" s="109"/>
       <c r="O52" s="60">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" si="10"/>
-        <v>82.857142857142861</v>
-      </c>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
+        <v>90.769230769230774</v>
+      </c>
+      <c r="Q52" s="109">
+        <v>20</v>
+      </c>
+      <c r="R52" s="109">
+        <v>20</v>
+      </c>
+      <c r="S52" s="109">
+        <v>20</v>
+      </c>
+      <c r="T52" s="109">
+        <v>20</v>
+      </c>
+      <c r="U52" s="109">
+        <v>20</v>
+      </c>
       <c r="V52" s="109"/>
       <c r="W52" s="109"/>
       <c r="X52" s="109"/>
       <c r="Y52" s="109"/>
       <c r="Z52" s="109"/>
-      <c r="AA52" s="60" t="str">
+      <c r="AA52" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB52" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC52" s="111"/>
       <c r="AD52" s="67" t="str">
@@ -23140,11 +23606,11 @@
       </c>
       <c r="AE52" s="66">
         <f>CRS!H52</f>
-        <v>27.342857142857145</v>
+        <v>62.953846153846158</v>
       </c>
       <c r="AF52" s="64">
         <f>CRS!I52</f>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23172,7 +23638,9 @@
       <c r="G53" s="109">
         <v>18</v>
       </c>
-      <c r="H53" s="109"/>
+      <c r="H53" s="109">
+        <v>50</v>
+      </c>
       <c r="I53" s="109"/>
       <c r="J53" s="109"/>
       <c r="K53" s="109"/>
@@ -23181,42 +23649,54 @@
       <c r="N53" s="109"/>
       <c r="O53" s="60">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P53" s="67">
         <f t="shared" si="10"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="Q53" s="109">
+        <v>20</v>
+      </c>
+      <c r="R53" s="109">
+        <v>20</v>
+      </c>
+      <c r="S53" s="109">
+        <v>20</v>
+      </c>
+      <c r="T53" s="109">
+        <v>20</v>
+      </c>
+      <c r="U53" s="109">
+        <v>20</v>
+      </c>
       <c r="V53" s="109"/>
       <c r="W53" s="109"/>
       <c r="X53" s="109"/>
       <c r="Y53" s="109"/>
       <c r="Z53" s="109"/>
-      <c r="AA53" s="60" t="str">
+      <c r="AA53" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB53" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB53" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC53" s="111">
+        <v>61</v>
+      </c>
+      <c r="AD53" s="67">
         <f t="shared" si="13"/>
-        <v/>
+        <v>67.777777777777786</v>
       </c>
       <c r="AE53" s="66">
         <f>CRS!H53</f>
-        <v>23.571428571428573</v>
+        <v>81.429059829059838</v>
       </c>
       <c r="AF53" s="64">
         <f>CRS!I53</f>
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23242,7 +23722,9 @@
       <c r="G54" s="109">
         <v>15</v>
       </c>
-      <c r="H54" s="109"/>
+      <c r="H54" s="109">
+        <v>50</v>
+      </c>
       <c r="I54" s="109"/>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
@@ -23251,29 +23733,39 @@
       <c r="N54" s="109"/>
       <c r="O54" s="60">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="P54" s="67">
         <f t="shared" si="10"/>
-        <v>38.571428571428577</v>
-      </c>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
+        <v>59.230769230769234</v>
+      </c>
+      <c r="Q54" s="109">
+        <v>20</v>
+      </c>
+      <c r="R54" s="109">
+        <v>20</v>
+      </c>
+      <c r="S54" s="109">
+        <v>20</v>
+      </c>
+      <c r="T54" s="109">
+        <v>20</v>
+      </c>
+      <c r="U54" s="109">
+        <v>20</v>
+      </c>
       <c r="V54" s="109"/>
       <c r="W54" s="109"/>
       <c r="X54" s="109"/>
       <c r="Y54" s="109"/>
       <c r="Z54" s="109"/>
-      <c r="AA54" s="60" t="str">
+      <c r="AA54" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB54" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC54" s="111"/>
       <c r="AD54" s="67" t="str">
@@ -23282,11 +23774,11 @@
       </c>
       <c r="AE54" s="66">
         <f>CRS!H54</f>
-        <v>12.728571428571431</v>
+        <v>52.54615384615385</v>
       </c>
       <c r="AF54" s="64">
         <f>CRS!I54</f>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23314,7 +23806,9 @@
       <c r="G55" s="109">
         <v>18</v>
       </c>
-      <c r="H55" s="109"/>
+      <c r="H55" s="109">
+        <v>40</v>
+      </c>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
       <c r="K55" s="109"/>
@@ -23323,29 +23817,39 @@
       <c r="N55" s="109"/>
       <c r="O55" s="60">
         <f t="shared" si="9"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P55" s="67">
         <f t="shared" si="10"/>
-        <v>75.714285714285708</v>
-      </c>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
+        <v>71.538461538461533</v>
+      </c>
+      <c r="Q55" s="109">
+        <v>20</v>
+      </c>
+      <c r="R55" s="109">
+        <v>20</v>
+      </c>
+      <c r="S55" s="109">
+        <v>20</v>
+      </c>
+      <c r="T55" s="109">
+        <v>20</v>
+      </c>
+      <c r="U55" s="109">
+        <v>20</v>
+      </c>
       <c r="V55" s="109"/>
       <c r="W55" s="109"/>
       <c r="X55" s="109"/>
       <c r="Y55" s="109"/>
       <c r="Z55" s="109"/>
-      <c r="AA55" s="60" t="str">
+      <c r="AA55" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB55" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB55" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC55" s="111"/>
       <c r="AD55" s="67" t="str">
@@ -23354,11 +23858,11 @@
       </c>
       <c r="AE55" s="66">
         <f>CRS!H55</f>
-        <v>24.985714285714284</v>
+        <v>56.607692307692304</v>
       </c>
       <c r="AF55" s="64">
         <f>CRS!I55</f>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23386,7 +23890,9 @@
       <c r="G56" s="109">
         <v>10</v>
       </c>
-      <c r="H56" s="109"/>
+      <c r="H56" s="109">
+        <v>50</v>
+      </c>
       <c r="I56" s="109"/>
       <c r="J56" s="109"/>
       <c r="K56" s="109"/>
@@ -23395,29 +23901,39 @@
       <c r="N56" s="109"/>
       <c r="O56" s="60">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="P56" s="67">
         <f t="shared" si="10"/>
-        <v>52.857142857142861</v>
-      </c>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
+        <v>66.92307692307692</v>
+      </c>
+      <c r="Q56" s="109">
+        <v>20</v>
+      </c>
+      <c r="R56" s="109">
+        <v>20</v>
+      </c>
+      <c r="S56" s="109">
+        <v>20</v>
+      </c>
+      <c r="T56" s="109">
+        <v>20</v>
+      </c>
+      <c r="U56" s="109">
+        <v>20</v>
+      </c>
       <c r="V56" s="109"/>
       <c r="W56" s="109"/>
       <c r="X56" s="109"/>
       <c r="Y56" s="109"/>
       <c r="Z56" s="109"/>
-      <c r="AA56" s="60" t="str">
+      <c r="AA56" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB56" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AB56" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC56" s="111"/>
       <c r="AD56" s="67" t="str">
@@ -23426,11 +23942,11 @@
       </c>
       <c r="AE56" s="66">
         <f>CRS!H56</f>
-        <v>17.442857142857147</v>
+        <v>55.08461538461539</v>
       </c>
       <c r="AF56" s="64">
         <f>CRS!I56</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -23456,7 +23972,9 @@
         <v>15</v>
       </c>
       <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
+      <c r="H57" s="109">
+        <v>40</v>
+      </c>
       <c r="I57" s="109"/>
       <c r="J57" s="109"/>
       <c r="K57" s="109"/>
@@ -23465,29 +23983,39 @@
       <c r="N57" s="109"/>
       <c r="O57" s="60">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P57" s="67">
         <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="109"/>
-      <c r="U57" s="109"/>
+        <v>57.692307692307686</v>
+      </c>
+      <c r="Q57" s="109">
+        <v>20</v>
+      </c>
+      <c r="R57" s="109">
+        <v>0</v>
+      </c>
+      <c r="S57" s="109">
+        <v>20</v>
+      </c>
+      <c r="T57" s="109">
+        <v>20</v>
+      </c>
+      <c r="U57" s="109">
+        <v>20</v>
+      </c>
       <c r="V57" s="109"/>
       <c r="W57" s="109"/>
       <c r="X57" s="109"/>
       <c r="Y57" s="109"/>
       <c r="Z57" s="109"/>
-      <c r="AA57" s="60" t="str">
+      <c r="AA57" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB57" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="AB57" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AC57" s="111"/>
       <c r="AD57" s="67" t="str">
@@ -23496,11 +24024,11 @@
       </c>
       <c r="AE57" s="66">
         <f>CRS!H57</f>
-        <v>16.5</v>
+        <v>45.438461538461539</v>
       </c>
       <c r="AF57" s="64">
         <f>CRS!I57</f>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -37929,7 +38457,7 @@
       <c r="H15" s="133"/>
       <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -37988,7 +38516,7 @@
       <c r="H16" s="133"/>
       <c r="I16" s="144">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J16" s="145"/>
       <c r="K16" s="144" t="str">
@@ -38106,7 +38634,7 @@
       <c r="H18" s="133"/>
       <c r="I18" s="144">
         <f>IF(CRS!I12="","",CRS!I12)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J18" s="145"/>
       <c r="K18" s="144" t="str">
@@ -38165,7 +38693,7 @@
       <c r="H19" s="133"/>
       <c r="I19" s="144">
         <f>IF(CRS!I13="","",CRS!I13)</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="144" t="str">
@@ -38224,7 +38752,7 @@
       <c r="H20" s="133"/>
       <c r="I20" s="144">
         <f>IF(CRS!I14="","",CRS!I14)</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J20" s="145"/>
       <c r="K20" s="144" t="str">
@@ -38283,7 +38811,7 @@
       <c r="H21" s="133"/>
       <c r="I21" s="144">
         <f>IF(CRS!I15="","",CRS!I15)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J21" s="145"/>
       <c r="K21" s="144" t="str">
@@ -38342,7 +38870,7 @@
       <c r="H22" s="133"/>
       <c r="I22" s="144">
         <f>IF(CRS!I16="","",CRS!I16)</f>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J22" s="145"/>
       <c r="K22" s="144" t="str">
@@ -38401,7 +38929,7 @@
       <c r="H23" s="133"/>
       <c r="I23" s="144">
         <f>IF(CRS!I17="","",CRS!I17)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J23" s="145"/>
       <c r="K23" s="144" t="str">
@@ -38460,7 +38988,7 @@
       <c r="H24" s="133"/>
       <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" s="145"/>
       <c r="K24" s="144" t="str">
@@ -38519,7 +39047,7 @@
       <c r="H25" s="133"/>
       <c r="I25" s="144">
         <f>IF(CRS!I19="","",CRS!I19)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J25" s="145"/>
       <c r="K25" s="144" t="str">
@@ -38578,7 +39106,7 @@
       <c r="H26" s="133"/>
       <c r="I26" s="144">
         <f>IF(CRS!I20="","",CRS!I20)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="144" t="str">
@@ -38637,7 +39165,7 @@
       <c r="H27" s="133"/>
       <c r="I27" s="144">
         <f>IF(CRS!I21="","",CRS!I21)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="144" t="str">
@@ -38696,7 +39224,7 @@
       <c r="H28" s="133"/>
       <c r="I28" s="144">
         <f>IF(CRS!I22="","",CRS!I22)</f>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J28" s="145"/>
       <c r="K28" s="144" t="str">
@@ -38755,7 +39283,7 @@
       <c r="H29" s="133"/>
       <c r="I29" s="144">
         <f>IF(CRS!I23="","",CRS!I23)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J29" s="145"/>
       <c r="K29" s="144" t="str">
@@ -38814,7 +39342,7 @@
       <c r="H30" s="133"/>
       <c r="I30" s="144">
         <f>IF(CRS!I24="","",CRS!I24)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144" t="str">
@@ -38873,7 +39401,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -38932,7 +39460,7 @@
       <c r="H32" s="133"/>
       <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144" t="str">
@@ -38991,7 +39519,7 @@
       <c r="H33" s="133"/>
       <c r="I33" s="144">
         <f>IF(CRS!I27="","",CRS!I27)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J33" s="145"/>
       <c r="K33" s="144" t="str">
@@ -39050,7 +39578,7 @@
       <c r="H34" s="133"/>
       <c r="I34" s="144">
         <f>IF(CRS!I28="","",CRS!I28)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J34" s="145"/>
       <c r="K34" s="144" t="str">
@@ -39168,7 +39696,7 @@
       <c r="H36" s="133"/>
       <c r="I36" s="144">
         <f>IF(CRS!I30="","",CRS!I30)</f>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="144" t="str">
@@ -39227,7 +39755,7 @@
       <c r="H37" s="133"/>
       <c r="I37" s="144">
         <f>IF(CRS!I31="","",CRS!I31)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J37" s="145"/>
       <c r="K37" s="144" t="str">
@@ -39286,7 +39814,7 @@
       <c r="H38" s="133"/>
       <c r="I38" s="144">
         <f>IF(CRS!I32="","",CRS!I32)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J38" s="145"/>
       <c r="K38" s="144" t="str">
@@ -39345,7 +39873,7 @@
       <c r="H39" s="133"/>
       <c r="I39" s="144">
         <f>IF(CRS!I33="","",CRS!I33)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J39" s="145"/>
       <c r="K39" s="144" t="str">
@@ -39404,7 +39932,7 @@
       <c r="H40" s="133"/>
       <c r="I40" s="144">
         <f>IF(CRS!I34="","",CRS!I34)</f>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J40" s="145"/>
       <c r="K40" s="144" t="str">
@@ -39463,7 +39991,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144" t="str">
@@ -39522,7 +40050,7 @@
       <c r="H42" s="133"/>
       <c r="I42" s="144">
         <f>IF(CRS!I36="","",CRS!I36)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J42" s="145"/>
       <c r="K42" s="144" t="str">
@@ -39579,9 +40107,9 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="H43" s="133"/>
-      <c r="I43" s="144" t="str">
+      <c r="I43" s="144">
         <f>IF(CRS!I37="","",CRS!I37)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="J43" s="145"/>
       <c r="K43" s="144" t="str">
@@ -39640,7 +40168,7 @@
       <c r="H44" s="133"/>
       <c r="I44" s="144">
         <f>IF(CRS!I38="","",CRS!I38)</f>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="J44" s="145"/>
       <c r="K44" s="144" t="str">
@@ -39699,7 +40227,7 @@
       <c r="H45" s="133"/>
       <c r="I45" s="144">
         <f>IF(CRS!I39="","",CRS!I39)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J45" s="145"/>
       <c r="K45" s="144" t="str">
@@ -39758,7 +40286,7 @@
       <c r="H46" s="133"/>
       <c r="I46" s="144">
         <f>IF(CRS!I40="","",CRS!I40)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J46" s="145"/>
       <c r="K46" s="144" t="str">
@@ -40330,7 +40858,7 @@
       <c r="H76" s="133"/>
       <c r="I76" s="144">
         <f>IF(CRS!I50="","",CRS!I50)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J76" s="145"/>
       <c r="K76" s="144" t="str">
@@ -40389,7 +40917,7 @@
       <c r="H77" s="133"/>
       <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144" t="str">
@@ -40448,7 +40976,7 @@
       <c r="H78" s="133"/>
       <c r="I78" s="144">
         <f>IF(CRS!I52="","",CRS!I52)</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J78" s="145"/>
       <c r="K78" s="144" t="str">
@@ -40507,7 +41035,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="144">
         <f>IF(CRS!I53="","",CRS!I53)</f>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J79" s="145"/>
       <c r="K79" s="144" t="str">
@@ -40566,7 +41094,7 @@
       <c r="H80" s="133"/>
       <c r="I80" s="144">
         <f>IF(CRS!I54="","",CRS!I54)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J80" s="145"/>
       <c r="K80" s="144" t="str">
@@ -40625,7 +41153,7 @@
       <c r="H81" s="133"/>
       <c r="I81" s="144">
         <f>IF(CRS!I55="","",CRS!I55)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J81" s="145"/>
       <c r="K81" s="144" t="str">
@@ -40684,7 +41212,7 @@
       <c r="H82" s="133"/>
       <c r="I82" s="144">
         <f>IF(CRS!I56="","",CRS!I56)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J82" s="145"/>
       <c r="K82" s="144" t="str">
@@ -40743,7 +41271,7 @@
       <c r="H83" s="133"/>
       <c r="I83" s="144">
         <f>IF(CRS!I57="","",CRS!I57)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J83" s="145"/>
       <c r="K83" s="144" t="str">
